--- a/Data Preparation & Analysis/Outputs/Data_Moments.xlsx
+++ b/Data Preparation & Analysis/Outputs/Data_Moments.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>1</t>
   </si>

--- a/Data Preparation & Analysis/Outputs/Data_Moments.xlsx
+++ b/Data Preparation & Analysis/Outputs/Data_Moments.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="9">
   <si>
     <t>1</t>
   </si>

--- a/Data Preparation & Analysis/Outputs/Data_Moments.xlsx
+++ b/Data Preparation & Analysis/Outputs/Data_Moments.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="9">
   <si>
     <t>1</t>
   </si>

--- a/Data Preparation & Analysis/Outputs/Data_Moments.xlsx
+++ b/Data Preparation & Analysis/Outputs/Data_Moments.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="9">
   <si>
     <t>1</t>
   </si>
